--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-660870.1006179632</v>
+        <v>-663438.5240569102</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854492</v>
+        <v>10116307.12854491</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>284.2679060453803</v>
+        <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477814</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.9548294172311</v>
@@ -1385,10 +1385,10 @@
         <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844558</v>
+        <v>14.6557134484456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>82.26654546369548</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>224.0739556344216</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456545</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929326</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8098843539887</v>
+        <v>191.7907762106537</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315732</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="12">
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>88.63290103915989</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8337985898404</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556695</v>
+        <v>62.01093634556698</v>
       </c>
       <c r="S13" t="n">
         <v>162.8478090069615</v>
       </c>
       <c r="T13" t="n">
-        <v>160.4085709356536</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811325</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>225.2164269993476</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121106</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
         <v>198.7884390645568</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8126253390002</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>338.3516754465272</v>
@@ -1613,19 +1613,19 @@
         <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477814</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>39.73969806496349</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
         <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>199.6939587395047</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844557</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369546</v>
+        <v>82.26654546369549</v>
       </c>
       <c r="T14" t="n">
         <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456545</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315732</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>152.9107638574569</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345478</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>117.8337985898404</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535771</v>
+        <v>33.65223243342341</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556698</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8478090069615</v>
       </c>
       <c r="T16" t="n">
         <v>192.6277329516888</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2906218811325</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V16" t="n">
         <v>225.2164269993476</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6017820121106</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
         <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.73534786085365</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C17" t="n">
-        <v>267.1768855578928</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>280.78668867761</v>
@@ -1853,7 +1853,7 @@
         <v>308.0340171291888</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9796927986384</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G17" t="n">
         <v>337.0253727103805</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510288</v>
+        <v>35.29140884510292</v>
       </c>
       <c r="T17" t="n">
         <v>130.0216171965472</v>
       </c>
       <c r="U17" t="n">
-        <v>177.098819015829</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8559055270619</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W17" t="n">
-        <v>275.34461577434</v>
+        <v>233.6840126118251</v>
       </c>
       <c r="X17" t="n">
-        <v>295.834747735396</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3415857129806</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3524372314901</v>
+        <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555486</v>
+        <v>93.35046815555491</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513939</v>
+        <v>74.71912007513943</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5376097034962</v>
+        <v>72.53760970349624</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985828</v>
+        <v>71.52469507985832</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595525</v>
+        <v>92.1294553159553</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124781</v>
+        <v>70.85866197124786</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676514</v>
+        <v>22.45606746676517</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697437</v>
+        <v>15.0357997269744</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8726723883689</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6525963330962</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3154852625399</v>
+        <v>274.7322952551656</v>
       </c>
       <c r="V19" t="n">
-        <v>178.241290380755</v>
+        <v>178.2412903807551</v>
       </c>
       <c r="W19" t="n">
-        <v>212.626645393518</v>
+        <v>212.6266453935181</v>
       </c>
       <c r="X19" t="n">
         <v>151.8133024459642</v>
@@ -2087,10 +2087,10 @@
         <v>280.78668867761</v>
       </c>
       <c r="E20" t="n">
-        <v>105.0184923352867</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986385</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>337.0253727103805</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510291</v>
+        <v>35.23395965329182</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U20" t="n">
-        <v>177.098819015829</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V20" t="n">
         <v>253.855905527062</v>
@@ -2239,25 +2239,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555489</v>
+        <v>93.35046815555491</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513941</v>
+        <v>74.71912007513943</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349623</v>
+        <v>72.53760970349624</v>
       </c>
       <c r="F22" t="n">
-        <v>71.5246950798583</v>
+        <v>71.52469507985832</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5462653085808</v>
+        <v>92.1294553159553</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124784</v>
+        <v>70.85866197124786</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676517</v>
+        <v>22.45606746676518</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0357997269744</v>
+        <v>15.03579972697442</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
@@ -2305,7 +2305,7 @@
         <v>151.8133024459642</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6883004090218</v>
+        <v>207.1051104016472</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510291</v>
+        <v>35.29140884510294</v>
       </c>
       <c r="T23" t="n">
         <v>130.0216171965472</v>
       </c>
       <c r="U23" t="n">
-        <v>177.098819015829</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V23" t="n">
         <v>253.855905527062</v>
@@ -2476,25 +2476,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555489</v>
+        <v>93.35046815555491</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513941</v>
+        <v>74.71912007513943</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349623</v>
+        <v>72.53760970349624</v>
       </c>
       <c r="F25" t="n">
-        <v>71.5246950798583</v>
+        <v>71.52469507985832</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595528</v>
+        <v>92.1294553159553</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124784</v>
+        <v>70.85866197124786</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45606746676517</v>
+        <v>22.45606746676518</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0357997269744</v>
+        <v>15.03579972697442</v>
       </c>
       <c r="S25" t="n">
         <v>115.872672388369</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,19 +3266,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797666</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1498.722330561285</v>
+        <v>1796.220299260689</v>
       </c>
       <c r="C11" t="n">
-        <v>1498.722330561285</v>
+        <v>1454.450930122782</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.583031525548</v>
+        <v>1123.378379318537</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9879267298095</v>
+        <v>1123.378379318537</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1951697427073</v>
+        <v>739.5856223314348</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31586739020926</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020926</v>
+        <v>81.31586739020923</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810575</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938771</v>
+        <v>3242.508300938773</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723701125498</v>
+        <v>3242.508300938773</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.38637220184</v>
+        <v>3016.170972015115</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516632660775</v>
+        <v>2712.301232474049</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.941125193166</v>
+        <v>2712.301232474049</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.668514734592</v>
+        <v>2518.573175695611</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.722330561285</v>
+        <v>2155.626991522305</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>450.8754428628199</v>
+        <v>680.2405538376661</v>
       </c>
       <c r="C13" t="n">
-        <v>309.1324077374184</v>
+        <v>538.4975187122645</v>
       </c>
       <c r="D13" t="n">
-        <v>186.2089161275881</v>
+        <v>415.5740271024342</v>
       </c>
       <c r="E13" t="n">
-        <v>186.2089161275881</v>
+        <v>415.5740271024342</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>326.0458442345959</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>185.5361554118202</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>138.2867530403545</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504667</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601981</v>
+        <v>712.1377427601983</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388082</v>
+        <v>1451.007173388083</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469731</v>
+        <v>1776.988776469732</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064626</v>
+        <v>2036.248281064627</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.87327193841</v>
+        <v>2077.873271938411</v>
       </c>
       <c r="S13" t="n">
         <v>1913.380535567742</v>
       </c>
       <c r="T13" t="n">
-        <v>1751.351676036779</v>
+        <v>1718.807067939774</v>
       </c>
       <c r="U13" t="n">
-        <v>1489.441956964928</v>
+        <v>1718.807067939774</v>
       </c>
       <c r="V13" t="n">
-        <v>1261.950616561546</v>
+        <v>1491.315727536392</v>
       </c>
       <c r="W13" t="n">
-        <v>999.7265943270908</v>
+        <v>1229.091705301937</v>
       </c>
       <c r="X13" t="n">
-        <v>798.9301912315789</v>
+        <v>1028.295302206425</v>
       </c>
       <c r="Y13" t="n">
-        <v>605.3307598905542</v>
+        <v>834.6958708654004</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1811.163756225854</v>
+        <v>2071.332269943518</v>
       </c>
       <c r="C14" t="n">
-        <v>1469.394387087947</v>
+        <v>1729.562900805611</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.321836283702</v>
+        <v>1398.490350001366</v>
       </c>
       <c r="E14" t="n">
-        <v>779.7267314879634</v>
+        <v>1039.895245205627</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5856223314347</v>
+        <v>656.1024882185251</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789367</v>
+        <v>268.2231858660265</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020929</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508300938772</v>
+        <v>3242.50830093877</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723701125499</v>
+        <v>3063.723701125498</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.386372201841</v>
+        <v>3063.723701125498</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516632660776</v>
+        <v>2759.853961584433</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.516632660776</v>
+        <v>2434.278454116824</v>
       </c>
       <c r="X14" t="n">
-        <v>2533.516632660776</v>
+        <v>2434.278454116824</v>
       </c>
       <c r="Y14" t="n">
-        <v>2170.57044848747</v>
+        <v>2071.332269943518</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.5186106988681</v>
+        <v>480.9681442057816</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5186106988681</v>
+        <v>339.2251090803801</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5951190890378</v>
+        <v>339.2251090803801</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8751733091501</v>
+        <v>339.2251090803801</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1783736137451</v>
+        <v>219.5283093849752</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909694</v>
+        <v>219.5283093849752</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6446458113326</v>
+        <v>100.5042704053384</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403546</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504665</v>
+        <v>368.9259401504663</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601983</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.510581378378</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.873271938411</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.873271938411</v>
+        <v>1976.017845007708</v>
       </c>
       <c r="T16" t="n">
-        <v>1883.299804310442</v>
+        <v>1781.444377379739</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.390085238591</v>
+        <v>1519.534658307889</v>
       </c>
       <c r="V16" t="n">
-        <v>1393.89874483521</v>
+        <v>1292.043317904508</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.674722600754</v>
+        <v>1029.819295670052</v>
       </c>
       <c r="X16" t="n">
-        <v>930.8783195052425</v>
+        <v>829.0228925745405</v>
       </c>
       <c r="Y16" t="n">
-        <v>913.9739277266024</v>
+        <v>635.4234612335158</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.869761197798</v>
+        <v>1560.994119220128</v>
       </c>
       <c r="C17" t="n">
         <v>1560.994119220128</v>
@@ -5498,13 +5498,13 @@
         <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2257295162909</v>
+        <v>966.225729516291</v>
       </c>
       <c r="F17" t="n">
-        <v>629.882605477262</v>
+        <v>629.8826054772621</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4529360728374</v>
+        <v>289.4529360728375</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218339</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
         <v>2120.55555606017</v>
@@ -5552,13 +5552,13 @@
         <v>2723.315164453068</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.189289933532</v>
+        <v>2487.270707269406</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.366312423031</v>
+        <v>2188.447729758905</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.869761197798</v>
+        <v>1872.951178533672</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064531</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218339</v>
@@ -5595,16 +5595,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5622,22 +5622,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877561</v>
+        <v>569.1142151877564</v>
       </c>
       <c r="C19" t="n">
-        <v>474.820813010428</v>
+        <v>474.8208130104282</v>
       </c>
       <c r="D19" t="n">
-        <v>399.346954348671</v>
+        <v>399.3469543486712</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168566</v>
+        <v>326.0766415168568</v>
       </c>
       <c r="F19" t="n">
         <v>253.8294747695251</v>
@@ -5665,7 +5665,7 @@
         <v>160.7694188948228</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325929</v>
+        <v>89.19501286325932</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218339</v>
@@ -5674,13 +5674,13 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
         <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174004</v>
+        <v>1795.063768174005</v>
       </c>
       <c r="T19" t="n">
         <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479847370331</v>
+        <v>1370.432564549498</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.438139915023</v>
+        <v>1190.390857094189</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663750628641</v>
+        <v>975.6164678078075</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3169804812026</v>
+        <v>822.2696976603688</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1671820882513</v>
+        <v>676.1198992674174</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.247668749454</v>
+        <v>1518.970731370932</v>
       </c>
       <c r="C20" t="n">
-        <v>1355.927932559621</v>
+        <v>1224.650995181099</v>
       </c>
       <c r="D20" t="n">
-        <v>1072.305014703449</v>
+        <v>941.0280773249276</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2257295162909</v>
+        <v>629.8826054772621</v>
       </c>
       <c r="F20" t="n">
         <v>629.8826054772621</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,40 +5762,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886843</v>
+        <v>3290.015963373521</v>
       </c>
       <c r="T20" t="n">
-        <v>3289.957933886843</v>
+        <v>3158.680996508322</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.070237911258</v>
+        <v>2979.793300532737</v>
       </c>
       <c r="V20" t="n">
-        <v>2854.650131318266</v>
+        <v>2723.373193939745</v>
       </c>
       <c r="W20" t="n">
-        <v>2576.524256798731</v>
+        <v>2445.247319420209</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.70127928823</v>
+        <v>2146.424341909708</v>
       </c>
       <c r="Y20" t="n">
-        <v>1962.204728062997</v>
+        <v>1830.927790684475</v>
       </c>
     </row>
     <row r="21">
@@ -5847,7 +5847,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1614980085901</v>
+        <v>569.1142151877564</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8680958312619</v>
+        <v>474.8208130104282</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3942371695049</v>
+        <v>399.3469543486712</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1239243376906</v>
+        <v>326.0766415168568</v>
       </c>
       <c r="F22" t="n">
-        <v>316.876757590359</v>
+        <v>253.8294747695251</v>
       </c>
       <c r="G22" t="n">
         <v>160.7694188948228</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325932</v>
+        <v>89.19501286325934</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218339</v>
@@ -5953,7 +5953,7 @@
         <v>885.3169804812024</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1671820882511</v>
+        <v>676.1198992674174</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>1862.179185073751</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859448883919</v>
+        <v>1567.859448883918</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027747</v>
+        <v>1284.236531027746</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800813</v>
+        <v>973.0910591800809</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410525</v>
+        <v>636.747935141052</v>
       </c>
       <c r="G23" t="n">
         <v>296.3182657366274</v>
@@ -5999,16 +5999,16 @@
         <v>1580.642068665178</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42088572396</v>
+        <v>2463.822039249666</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.794510129004</v>
+        <v>2966.794510129003</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.568876486182</v>
+        <v>3361.568876486181</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241864</v>
+        <v>3609.855238241863</v>
       </c>
       <c r="R23" t="n">
         <v>3668.872304798666</v>
@@ -6017,7 +6017,7 @@
         <v>3633.22441707634</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211141</v>
+        <v>3501.88945021114</v>
       </c>
       <c r="U23" t="n">
         <v>3323.001754235556</v>
@@ -6066,10 +6066,10 @@
         <v>73.37744609597333</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865914</v>
+        <v>167.0547155865906</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669385</v>
+        <v>405.3189145669377</v>
       </c>
       <c r="L24" t="n">
         <v>772.0170748796038</v>
@@ -6124,22 +6124,22 @@
         <v>575.9795448515463</v>
       </c>
       <c r="C25" t="n">
-        <v>481.686142674218</v>
+        <v>481.6861426742181</v>
       </c>
       <c r="D25" t="n">
         <v>406.2122840124611</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806466</v>
+        <v>332.9419711806467</v>
       </c>
       <c r="F25" t="n">
-        <v>260.694804433315</v>
+        <v>260.6948044333151</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586127</v>
+        <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704926</v>
+        <v>96.06034252704927</v>
       </c>
       <c r="I25" t="n">
         <v>73.37744609597333</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557145</v>
@@ -6230,46 +6230,46 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1326.966459396848</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,10 +6388,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2033.107542689498</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697159</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038482</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467775</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
@@ -6461,25 +6461,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
         <v>3933.269522603402</v>
@@ -6500,13 +6500,13 @@
         <v>3346.282596468332</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146291</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833284</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805546</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6622,10 +6622,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6680,70 +6680,70 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>697.2742011480927</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1561.793016801447</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O32" t="n">
-        <v>3182.560655874483</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P32" t="n">
-        <v>3577.335022231661</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
@@ -6865,7 +6865,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038484</v>
@@ -6923,64 +6923,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>347.6465910812753</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>1002.369923216575</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L35" t="n">
-        <v>1453.404136464983</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1986.936041136908</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2533.71485819569</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O35" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7126,19 +7126,19 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455608</v>
+        <v>810.872990474187</v>
       </c>
       <c r="L38" t="n">
-        <v>1468.364237198915</v>
+        <v>1261.907203722596</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.89614187084</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.674958929621</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O38" t="n">
-        <v>3051.647429808958</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7257,13 +7257,13 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913849</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415479</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643402</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,16 +7330,16 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="41">
@@ -7391,49 +7391,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.011402386888</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M41" t="n">
-        <v>1872.543307058813</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285459</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O41" t="n">
         <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7454,7 +7454,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
         <v>779.7865456803195</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960325</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973154</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982181</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7649,25 +7649,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910139</v>
+        <v>878.8992091819734</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.783593239423</v>
+        <v>1329.933422430382</v>
       </c>
       <c r="M44" t="n">
-        <v>2305.516762226677</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285459</v>
+        <v>2410.244144161089</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7688,10 +7688,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="45">
@@ -7725,7 +7725,7 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
         <v>413.0883853676542</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764223</v>
+        <v>212.1614152764229</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188429</v>
+        <v>225.9304893188436</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603969</v>
+        <v>219.4018707603977</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030224</v>
+        <v>218.2916099030232</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661476</v>
+        <v>219.5965380661483</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111169</v>
+        <v>222.2700605111175</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.686900335729</v>
+        <v>123.6869003357293</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344801</v>
+        <v>132.4563458344805</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915371</v>
+        <v>131.3134574915376</v>
       </c>
       <c r="M6" t="n">
-        <v>133.684219143769</v>
+        <v>133.6842191437696</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511123</v>
+        <v>122.6682558511129</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891789</v>
+        <v>134.6617264891794</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357701</v>
+        <v>127.6062572357706</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369101</v>
+        <v>135.7248343369104</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970305</v>
+        <v>130.7280129970308</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216056</v>
+        <v>134.5431653216059</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145257</v>
+        <v>123.407134714526</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663797</v>
+        <v>134.50473456638</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299168</v>
+        <v>134.346553129917</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>339.7991449754608</v>
       </c>
       <c r="O23" t="n">
-        <v>339.7991449754616</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>336.8335818149113</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544146</v>
+        <v>277.8321087236478</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>94.37250464902201</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>174.4519134245573</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>78.40458911672806</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>343.5485285966315</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>209.1187564935616</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>306.6874953089263</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>117.9051702753188</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>306.6874953089266</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>277.832108723649</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>400.2032972882125</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16194852731945</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8126253390002</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.4939192508223</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>151.019108143335</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>119.5127463220888</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.866930659291</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535772</v>
+        <v>69.43120408535773</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>32.21916201603517</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>340.2151313522676</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>67.99258932333545</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929326</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8098843539887</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.77897165193435</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01093634556699</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.9280891667608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8374887204076</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>24.19965327004183</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>41.66060316251497</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>203.0155247939022</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.0574491918111022</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0216171965472</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1230084.382307448</v>
+        <v>1230084.382307449</v>
       </c>
     </row>
     <row r="4">
@@ -26317,31 +26317,31 @@
         <v>286748.4550266609</v>
       </c>
       <c r="D2" t="n">
-        <v>286750.640932164</v>
+        <v>286750.6409321639</v>
       </c>
       <c r="E2" t="n">
+        <v>255339.6615884936</v>
+      </c>
+      <c r="F2" t="n">
         <v>255339.6615884937</v>
       </c>
-      <c r="F2" t="n">
-        <v>255339.6615884936</v>
-      </c>
       <c r="G2" t="n">
+        <v>278086.204676645</v>
+      </c>
+      <c r="H2" t="n">
         <v>278086.2046766452</v>
       </c>
-      <c r="H2" t="n">
-        <v>278086.2046766451</v>
-      </c>
       <c r="I2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="J2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="K2" t="n">
         <v>287364.6194524994</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>287364.6194524993</v>
-      </c>
-      <c r="L2" t="n">
-        <v>287364.6194524994</v>
       </c>
       <c r="M2" t="n">
         <v>287364.6194524994</v>
@@ -26350,7 +26350,7 @@
         <v>287364.6194524993</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524993</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945571</v>
+        <v>14118.19859945475</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072075</v>
+        <v>16714.64353072166</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487395</v>
+        <v>37580.10929487423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905854</v>
+        <v>22820.44161905851</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728114</v>
+        <v>25410.44272728121</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200263</v>
+        <v>426739.1543200266</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210908</v>
+        <v>37585.46710210906</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210908</v>
+        <v>37585.46710210906</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521041</v>
+        <v>74613.22686521034</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521042</v>
+        <v>74613.22686521038</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913915</v>
+        <v>85473.00365913913</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="K4" t="n">
         <v>80755.36360646598</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646599</v>
       </c>
       <c r="N4" t="n">
+        <v>80755.36360646601</v>
+      </c>
+      <c r="O4" t="n">
         <v>80755.36360646602</v>
       </c>
-      <c r="O4" t="n">
-        <v>80755.36360646598</v>
-      </c>
       <c r="P4" t="n">
-        <v>80755.36360646604</v>
+        <v>80755.36360646601</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112997</v>
+        <v>33965.59259112995</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657605</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.58029657605</v>
+        <v>76569.58029657602</v>
       </c>
       <c r="G5" t="n">
         <v>80518.73305696448</v>
@@ -26488,19 +26488,19 @@
         <v>80518.73305696447</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.38360144483</v>
+        <v>85736.38360144482</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-177779.3908917124</v>
+        <v>-177783.8044695805</v>
       </c>
       <c r="C6" t="n">
-        <v>-188074.490483951</v>
+        <v>-188078.8916584207</v>
       </c>
       <c r="D6" t="n">
-        <v>-185950.0573221067</v>
+        <v>-185954.4428829672</v>
       </c>
       <c r="E6" t="n">
-        <v>-975984.2272821116</v>
+        <v>-976212.9769811403</v>
       </c>
       <c r="F6" t="n">
-        <v>141184.6141898086</v>
+        <v>140955.8644907803</v>
       </c>
       <c r="G6" t="n">
-        <v>85374.13545959639</v>
+        <v>85307.86106833983</v>
       </c>
       <c r="H6" t="n">
-        <v>122954.2447544702</v>
+        <v>122887.9703632143</v>
       </c>
       <c r="I6" t="n">
-        <v>93334.79057285644</v>
+        <v>93334.79057285665</v>
       </c>
       <c r="J6" t="n">
-        <v>91820.87144394616</v>
+        <v>91820.87144394597</v>
       </c>
       <c r="K6" t="n">
+        <v>117231.3141712273</v>
+      </c>
+      <c r="L6" t="n">
+        <v>79651.20487635315</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-89957.2541208458</v>
+      </c>
+      <c r="N6" t="n">
+        <v>117231.3141712273</v>
+      </c>
+      <c r="O6" t="n">
         <v>117231.3141712272</v>
       </c>
-      <c r="L6" t="n">
-        <v>79651.20487635322</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-89957.25412084557</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>117231.3141712272</v>
-      </c>
-      <c r="O6" t="n">
-        <v>117231.3141712276</v>
-      </c>
-      <c r="P6" t="n">
-        <v>117231.3141712271</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953999</v>
+        <v>15.50424729953893</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022924</v>
@@ -26808,19 +26808,19 @@
         <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996666</v>
+        <v>917.2180761996665</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448038</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953999</v>
+        <v>15.50424729953893</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958533</v>
+        <v>19.51701341958639</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.212739084049964e-14</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737418</v>
+        <v>85.81662079737407</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.11838500894805</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448038</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27634,10 +27634,10 @@
         <v>338.8364790096107</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713486</v>
+        <v>208.0729649713487</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851381</v>
+        <v>6.659224593851744</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.2599081167832</v>
+        <v>3.25990811678366</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886684</v>
+        <v>145.9538669886686</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763428</v>
+        <v>207.5997558763429</v>
       </c>
       <c r="T5" t="n">
-        <v>222.8230059759756</v>
+        <v>222.8230059759757</v>
       </c>
       <c r="U5" t="n">
         <v>251.3406666172477</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234538</v>
+        <v>88.24844095234545</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573475</v>
+        <v>98.08728580573489</v>
       </c>
       <c r="S6" t="n">
-        <v>171.063732544276</v>
+        <v>171.0637325442761</v>
       </c>
       <c r="T6" t="n">
         <v>200.0303097960643</v>
@@ -27795,10 +27795,10 @@
         <v>154.6096872212439</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997569</v>
+        <v>91.38251566997582</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263496</v>
+        <v>19.02122493263519</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946384</v>
+        <v>83.82090190946401</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059642</v>
+        <v>176.0362765059643</v>
       </c>
       <c r="S7" t="n">
         <v>223.5293580029851</v>
@@ -27950,7 +27950,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448037</v>
+        <v>26.92121632448035</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.47954295044715</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307297</v>
+        <v>11.4795429504473</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307297</v>
+        <v>73.89635294307293</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="G22" t="n">
-        <v>11.47954295044744</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307294</v>
+        <v>11.47954295044761</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,25 +29241,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="Y25" t="n">
         <v>11.47954295044761</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859372</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995972</v>
+        <v>0.06232863235995545</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061564376</v>
+        <v>0.6383231061563939</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057349</v>
+        <v>2.402924599057185</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760761136</v>
+        <v>5.290064760760774</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768558232</v>
+        <v>7.92843576855769</v>
       </c>
       <c r="L5" t="n">
-        <v>9.83592565114435</v>
+        <v>9.835925651143679</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687578</v>
+        <v>10.94436246687503</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356852</v>
+        <v>11.12145369356776</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553917</v>
+        <v>10.50167335553845</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244152664</v>
+        <v>8.962935244152051</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097761604</v>
+        <v>6.730791097761144</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952481323</v>
+        <v>3.915250952481055</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902583</v>
+        <v>1.420313709902486</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881557238</v>
+        <v>0.2728435881557051</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796776</v>
+        <v>0.004986290588796435</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240678</v>
+        <v>0.03334875834240449</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753497</v>
+        <v>0.3220787976753277</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069707</v>
+        <v>1.148191899069628</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937651</v>
+        <v>3.150726330937435</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878904</v>
+        <v>5.385093139878536</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288337051</v>
+        <v>7.240922288336555</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778249294</v>
+        <v>8.449814778248715</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220962</v>
+        <v>8.673456232220369</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955265527</v>
+        <v>7.934517955264984</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178560115</v>
+        <v>6.368150178559679</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111433</v>
+        <v>4.256939749111142</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908379</v>
+        <v>2.070548346908238</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595618096</v>
+        <v>0.6194385595617672</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573325</v>
+        <v>0.1344188987573233</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368868</v>
+        <v>0.002193997259368718</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687539</v>
+        <v>0.02795847873687348</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696741</v>
+        <v>0.2485762927696571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143983</v>
+        <v>0.8407877060143408</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97666444669709</v>
+        <v>1.976664446696955</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247886</v>
+        <v>3.248266893247663</v>
       </c>
       <c r="L7" t="n">
-        <v>4.15666328420782</v>
+        <v>4.156663284207536</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999475</v>
+        <v>4.382618625999176</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707489</v>
+        <v>4.278409750707196</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885463079</v>
+        <v>3.951803885462809</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230819</v>
+        <v>3.381450919230587</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230538</v>
+        <v>2.341141342230378</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205324</v>
+        <v>1.257114871205238</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871827</v>
+        <v>0.4872400339871494</v>
       </c>
       <c r="T7" t="n">
-        <v>0.119458954603013</v>
+        <v>0.1194589546030048</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102296</v>
+        <v>0.001525007931102191</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31546,16 +31546,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S8" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I9" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K9" t="n">
         <v>12.16394109335884</v>
@@ -31613,7 +31613,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
         <v>17.92262575689049</v>
@@ -31671,22 +31671,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H10" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K10" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M10" t="n">
         <v>9.899534402948818</v>
@@ -31695,10 +31695,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q10" t="n">
         <v>5.288210368587925</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32567,10 +32567,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,13 +32786,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026446</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138804</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33041,7 +33041,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -33989,7 +33989,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34208,13 +34208,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34445,10 +34445,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754659</v>
+        <v>72.49963293754658</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758688</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L13" t="n">
         <v>346.6785884946785</v>
@@ -35580,7 +35580,7 @@
         <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471202</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P13" t="n">
         <v>261.8782874695908</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754659</v>
+        <v>72.49963293754655</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758688</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5545957179642</v>
+        <v>374.5545957179641</v>
       </c>
       <c r="N16" t="n">
         <v>371.7781624920204</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2743465471202</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8782874695908</v>
+        <v>261.8782874695907</v>
       </c>
       <c r="Q16" t="n">
         <v>105.315454862374</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923308</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36367,10 +36367,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>892.100980388372</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8521458636806</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359779</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340062</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36598,25 +36598,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>730.4252907588757</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>889.1354172278226</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737863</v>
+        <v>676.5940949430194</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>431.5637912044224</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>425.2462182282767</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>269.1915900854406</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37315,13 +37315,13 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>895.8503640095428</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629116</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,13 +37543,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>546.310043048962</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37558,13 +37558,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>705.449481528298</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>573.4952846676507</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>814.7404961971456</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165992</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -37950,13 +37950,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>615.0233952790494</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>939.1244131184391</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
